--- a/data/snapshot.xlsx
+++ b/data/snapshot.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="884" firstSheet="3" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="884" firstSheet="3" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="add_snapshot" sheetId="1" r:id="rId1"/>
@@ -271,9 +271,6 @@
     <t>snapshot of nasshare should be modified umount to mount</t>
   </si>
   <si>
-    <t>snapshot -a umount -i 2</t>
-  </si>
-  <si>
     <t>snapshot of nasshare should be modified mount to umount</t>
   </si>
   <si>
@@ -482,6 +479,10 @@
   </si>
   <si>
     <t>Snapshot id=[100] is not existed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>snapshot -a unmount -i 2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -959,7 +960,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -967,7 +968,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
@@ -975,7 +976,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
@@ -983,7 +984,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
@@ -991,7 +992,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B6" t="s">
         <v>2</v>
@@ -999,7 +1000,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B7" t="s">
         <v>2</v>
@@ -1007,7 +1008,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B8" t="s">
         <v>2</v>
@@ -1015,7 +1016,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B9" t="s">
         <v>2</v>
@@ -1023,7 +1024,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B10" t="s">
         <v>2</v>
@@ -1031,10 +1032,10 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -1067,7 +1068,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -1075,7 +1076,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -1083,7 +1084,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -1091,7 +1092,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -1099,7 +1100,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
@@ -1107,7 +1108,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
@@ -1115,7 +1116,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
@@ -1123,7 +1124,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>
@@ -1131,7 +1132,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B10" t="s">
         <v>3</v>
@@ -1139,7 +1140,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B11" t="s">
         <v>3</v>
@@ -1147,7 +1148,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B12" t="s">
         <v>3</v>
@@ -1155,7 +1156,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B13" t="s">
         <v>3</v>
@@ -1163,7 +1164,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B14" t="s">
         <v>3</v>
@@ -1171,7 +1172,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B15" t="s">
         <v>3</v>
@@ -1179,7 +1180,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B16" t="s">
         <v>3</v>
@@ -1580,8 +1581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1622,10 +1623,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B3" t="s">
         <v>77</v>
-      </c>
-      <c r="B3" t="s">
-        <v>78</v>
       </c>
       <c r="C3" t="s">
         <v>48</v>
@@ -1664,18 +1665,18 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" t="s">
         <v>80</v>
-      </c>
-      <c r="B3" t="s">
-        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1720,7 +1721,7 @@
         <v>50</v>
       </c>
       <c r="B2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C2" t="s">
         <v>51</v>
@@ -1731,10 +1732,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C3" t="s">
         <v>51</v>
@@ -1745,10 +1746,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C4" t="s">
         <v>51</v>
@@ -1759,16 +1760,16 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C5" t="s">
         <v>51</v>
       </c>
       <c r="D5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -1781,7 +1782,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
@@ -1801,7 +1802,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B2" t="s">
         <v>36</v>
@@ -1809,7 +1810,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B3" t="s">
         <v>36</v>
@@ -1817,7 +1818,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B4" t="s">
         <v>36</v>
@@ -1825,7 +1826,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B5" t="s">
         <v>36</v>
@@ -1833,23 +1834,23 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B8" t="s">
         <v>37</v>
@@ -1857,7 +1858,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B9" t="s">
         <v>37</v>
@@ -1865,7 +1866,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B10" t="s">
         <v>36</v>
@@ -1873,7 +1874,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
@@ -1881,15 +1882,15 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B13" t="s">
         <v>37</v>
@@ -1897,7 +1898,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B14" t="s">
         <v>36</v>
@@ -1905,7 +1906,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B15" t="s">
         <v>36</v>
@@ -1913,7 +1914,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B16" t="s">
         <v>36</v>
@@ -1921,7 +1922,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B17" t="s">
         <v>36</v>
@@ -1929,15 +1930,15 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
+        <v>138</v>
+      </c>
+      <c r="B18" t="s">
         <v>139</v>
-      </c>
-      <c r="B18" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B19" t="s">
         <v>36</v>
@@ -1945,7 +1946,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B20" t="s">
         <v>36</v>
@@ -1953,10 +1954,10 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B21" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>

--- a/data/snapshot.xlsx
+++ b/data/snapshot.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="884" firstSheet="3" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="884" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="add_snapshot" sheetId="1" r:id="rId1"/>
@@ -274,12 +274,6 @@
     <t>snapshot of nasshare should be modified mount to umount</t>
   </si>
   <si>
-    <t>snapshot -a rollback -i 4</t>
-  </si>
-  <si>
-    <t>snapshot -a rollback -i 5</t>
-  </si>
-  <si>
     <t>snapshot of nasshare type should be rollbacked</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -483,6 +477,14 @@
   </si>
   <si>
     <t>snapshot -a unmount -i 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>snapshot -a rollback -i 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>snapshot -a rollback -i 0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -834,7 +836,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -960,7 +962,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -968,7 +970,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
@@ -976,7 +978,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
@@ -984,7 +986,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
@@ -992,7 +994,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B6" t="s">
         <v>2</v>
@@ -1000,7 +1002,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B7" t="s">
         <v>2</v>
@@ -1008,7 +1010,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B8" t="s">
         <v>2</v>
@@ -1016,7 +1018,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B9" t="s">
         <v>2</v>
@@ -1024,7 +1026,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B10" t="s">
         <v>2</v>
@@ -1032,10 +1034,10 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B11" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -1068,7 +1070,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -1076,7 +1078,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -1084,7 +1086,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -1092,7 +1094,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -1100,7 +1102,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
@@ -1108,7 +1110,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
@@ -1116,7 +1118,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
@@ -1124,7 +1126,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>
@@ -1132,7 +1134,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B10" t="s">
         <v>3</v>
@@ -1140,7 +1142,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B11" t="s">
         <v>3</v>
@@ -1148,7 +1150,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B12" t="s">
         <v>3</v>
@@ -1156,7 +1158,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B13" t="s">
         <v>3</v>
@@ -1164,7 +1166,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B14" t="s">
         <v>3</v>
@@ -1172,7 +1174,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B15" t="s">
         <v>3</v>
@@ -1180,7 +1182,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B16" t="s">
         <v>3</v>
@@ -1581,8 +1583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1623,7 +1625,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B3" t="s">
         <v>77</v>
@@ -1645,8 +1647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1665,18 +1667,18 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>78</v>
+        <v>140</v>
       </c>
       <c r="B2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>139</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1721,7 +1723,7 @@
         <v>50</v>
       </c>
       <c r="B2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C2" t="s">
         <v>51</v>
@@ -1732,10 +1734,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C3" t="s">
         <v>51</v>
@@ -1746,10 +1748,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C4" t="s">
         <v>51</v>
@@ -1760,16 +1762,16 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C5" t="s">
         <v>51</v>
       </c>
       <c r="D5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -1802,7 +1804,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B2" t="s">
         <v>36</v>
@@ -1810,7 +1812,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B3" t="s">
         <v>36</v>
@@ -1818,7 +1820,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B4" t="s">
         <v>36</v>
@@ -1826,7 +1828,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B5" t="s">
         <v>36</v>
@@ -1834,23 +1836,23 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B8" t="s">
         <v>37</v>
@@ -1858,7 +1860,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B9" t="s">
         <v>37</v>
@@ -1866,7 +1868,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B10" t="s">
         <v>36</v>
@@ -1874,7 +1876,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
@@ -1882,15 +1884,15 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B13" t="s">
         <v>37</v>
@@ -1898,7 +1900,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B14" t="s">
         <v>36</v>
@@ -1906,7 +1908,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B15" t="s">
         <v>36</v>
@@ -1914,7 +1916,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B16" t="s">
         <v>36</v>
@@ -1922,7 +1924,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B17" t="s">
         <v>36</v>
@@ -1930,15 +1932,15 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B18" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B19" t="s">
         <v>36</v>
@@ -1946,7 +1948,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B20" t="s">
         <v>36</v>
@@ -1954,10 +1956,10 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B21" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>

--- a/data/snapshot.xlsx
+++ b/data/snapshot.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="884" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="884" firstSheet="5" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="add_snapshot" sheetId="1" r:id="rId1"/>
@@ -460,10 +460,6 @@
     <t>Volume id=[100] is not existed</t>
   </si>
   <si>
-    <t>NASShare id=[100] is not existed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Invalid option for the command or the action</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -485,6 +481,10 @@
   </si>
   <si>
     <t>snapshot -a rollback -i 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NAS Share id=[100] is not existed</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1037,7 +1037,7 @@
         <v>107</v>
       </c>
       <c r="B11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -1625,7 +1625,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B3" t="s">
         <v>77</v>
@@ -1647,7 +1647,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -1667,7 +1667,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B2" t="s">
         <v>79</v>
@@ -1675,7 +1675,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B3" t="s">
         <v>78</v>
@@ -1784,8 +1784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1839,7 +1839,7 @@
         <v>93</v>
       </c>
       <c r="B6" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
@@ -1932,10 +1932,10 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
+        <v>135</v>
+      </c>
+      <c r="B18" t="s">
         <v>136</v>
-      </c>
-      <c r="B18" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">

--- a/data/snapshot.xlsx
+++ b/data/snapshot.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="884" firstSheet="5" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="884" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="add_snapshot" sheetId="1" r:id="rId1"/>
@@ -476,15 +476,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>snapshot -a rollback -i 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>snapshot -a rollback -i 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>NAS Share id=[100] is not existed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>snapshot -a rollback -i 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>snapshot -a rollback -i 1 -f</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1647,13 +1647,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="27.5" customWidth="1"/>
+    <col min="1" max="1" width="31.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="51.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1675,7 +1675,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B3" t="s">
         <v>78</v>
@@ -1784,7 +1784,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -1839,7 +1839,7 @@
         <v>93</v>
       </c>
       <c r="B6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">

--- a/data/snapshot.xlsx
+++ b/data/snapshot.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="884" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="884" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="add_snapshot" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="138">
   <si>
     <t>send command</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -435,22 +435,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>snapshot -a del -i 3 -f -y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>\r\n3</t>
-  </si>
-  <si>
     <t>nasshare type snapshot of id 0 should be deleted</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>nasshare type snapshot of id 1 should be forced deleted</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>volume type snapshot of id 2 should be forced deleted</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1037,7 +1026,7 @@
         <v>107</v>
       </c>
       <c r="B11" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -1625,7 +1614,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B3" t="s">
         <v>77</v>
@@ -1647,8 +1636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1667,7 +1656,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B2" t="s">
         <v>79</v>
@@ -1675,7 +1664,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B3" t="s">
         <v>78</v>
@@ -1690,10 +1679,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1723,7 +1712,7 @@
         <v>50</v>
       </c>
       <c r="B2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C2" t="s">
         <v>51</v>
@@ -1751,27 +1740,13 @@
         <v>126</v>
       </c>
       <c r="B4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C4" t="s">
         <v>51</v>
       </c>
       <c r="D4" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>127</v>
-      </c>
-      <c r="B5" t="s">
-        <v>131</v>
-      </c>
-      <c r="C5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D5" t="s">
-        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -1839,7 +1814,7 @@
         <v>93</v>
       </c>
       <c r="B6" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
@@ -1847,7 +1822,7 @@
         <v>94</v>
       </c>
       <c r="B7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
@@ -1887,7 +1862,7 @@
         <v>86</v>
       </c>
       <c r="B12" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
@@ -1932,10 +1907,10 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B18" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
@@ -1959,7 +1934,7 @@
         <v>92</v>
       </c>
       <c r="B21" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>

--- a/data/snapshot.xlsx
+++ b/data/snapshot.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="884" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="884" firstSheet="3" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="add_snapshot" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="136">
   <si>
     <t>send command</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -318,162 +318,155 @@
     <t>snapshot -a del test</t>
   </si>
   <si>
+    <t>snapshot -a add -t nasshare -d 100 -s "name=test"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>snapshot -a add -t volume -d 100 -s "name=test"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>snapshot -a add -t nasshare -d 0 -s "name=test_test_test_test_test_test_333"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>snapshot -a add -t volume -d 0 -s "name=test_test_test_test_test_test_333"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>snapshot -a rollback test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>snapshot -a rollback -i test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>snapshot -test</t>
+  </si>
+  <si>
+    <t>snapshot -i -test</t>
+  </si>
+  <si>
+    <t>snapshot -a add -test</t>
+  </si>
+  <si>
+    <t>snapshot -a add -d 0 -s "test=test_name"</t>
+  </si>
+  <si>
+    <t>snapshot -a mod -test</t>
+  </si>
+  <si>
+    <t>snapshot -a mod -i 3 -s "test=test_name"</t>
+  </si>
+  <si>
+    <t>snapshot -a export -test</t>
+  </si>
+  <si>
+    <t>snapshot -a unexport -test</t>
+  </si>
+  <si>
+    <t>snapshot -a del -test</t>
+  </si>
+  <si>
+    <t>snapshot -a rollback -test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>snapshot -i</t>
+  </si>
+  <si>
+    <t>snapshot -a add</t>
+  </si>
+  <si>
+    <t>snapshot -a add -d</t>
+  </si>
+  <si>
+    <t>snapshot -a add -d 0 -s</t>
+  </si>
+  <si>
+    <t>snapshot -a mod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">snapshot -a mod -i </t>
+  </si>
+  <si>
+    <t>snapshot -a mod -i 0 -s</t>
+  </si>
+  <si>
+    <t>snapshot -a export</t>
+  </si>
+  <si>
+    <t>snapshot -a export -i</t>
+  </si>
+  <si>
+    <t>snapshot -a unexport</t>
+  </si>
+  <si>
+    <t>snapshot -a unexport -i</t>
+  </si>
+  <si>
+    <t>snapshot -a del</t>
+  </si>
+  <si>
+    <t>snapshot -a del -i</t>
+  </si>
+  <si>
+    <t>snapshot -a rollback</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>snapshot -a rollback -i</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volume type snapshot of id 0 should be deleted</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>snapshot -a del -i 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>snapshot -a del -i 2 -f -y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nasshare type snapshot of id 0 should be deleted</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nasshare type snapshot of id 1 should be forced deleted</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Snapshot id=[100] is not existed</t>
+  </si>
+  <si>
+    <t>Volume id=[100] is not existed</t>
+  </si>
+  <si>
+    <t>Invalid option for the command or the action</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>snapshot -a unmount -i 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NAS Share id=[100] is not existed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>snapshot -a rollback -i 1 -f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>snapshot -a rollback -i 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>snapshot -a del -i 100</t>
-  </si>
-  <si>
-    <t>snapshot -a add -t nasshare -d 100 -s "name=test"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>snapshot -a add -t volume -d 100 -s "name=test"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>snapshot -a add -t nasshare -d 0 -s "name=test_test_test_test_test_test_333"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>snapshot -a add -t volume -d 0 -s "name=test_test_test_test_test_test_333"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>snapshot -a rollback test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>snapshot -a rollback -i test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>snapshot -test</t>
-  </si>
-  <si>
-    <t>snapshot -i -test</t>
-  </si>
-  <si>
-    <t>snapshot -a add -test</t>
-  </si>
-  <si>
-    <t>snapshot -a add -d 0 -s "test=test_name"</t>
-  </si>
-  <si>
-    <t>snapshot -a mod -test</t>
-  </si>
-  <si>
-    <t>snapshot -a mod -i 3 -s "test=test_name"</t>
-  </si>
-  <si>
-    <t>snapshot -a export -test</t>
-  </si>
-  <si>
-    <t>snapshot -a unexport -test</t>
-  </si>
-  <si>
-    <t>snapshot -a del -test</t>
-  </si>
-  <si>
-    <t>snapshot -a rollback -test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>snapshot -i</t>
-  </si>
-  <si>
-    <t>snapshot -a add</t>
-  </si>
-  <si>
-    <t>snapshot -a add -d</t>
-  </si>
-  <si>
-    <t>snapshot -a add -d 0 -s</t>
-  </si>
-  <si>
-    <t>snapshot -a mod</t>
-  </si>
-  <si>
-    <t xml:space="preserve">snapshot -a mod -i </t>
-  </si>
-  <si>
-    <t>snapshot -a mod -i 0 -s</t>
-  </si>
-  <si>
-    <t>snapshot -a export</t>
-  </si>
-  <si>
-    <t>snapshot -a export -i</t>
-  </si>
-  <si>
-    <t>snapshot -a unexport</t>
-  </si>
-  <si>
-    <t>snapshot -a unexport -i</t>
-  </si>
-  <si>
-    <t>snapshot -a del</t>
-  </si>
-  <si>
-    <t>snapshot -a del -i</t>
-  </si>
-  <si>
-    <t>snapshot -a rollback</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>snapshot -a rollback -i</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>volume type snapshot of id 0 should be deleted</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>snapshot -a del -i 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>snapshot -a del -i 2 -f -y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nasshare type snapshot of id 0 should be deleted</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nasshare type snapshot of id 1 should be forced deleted</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Snapshot id=[100] is not existed</t>
-  </si>
-  <si>
-    <t>Volume id=[100] is not existed</t>
-  </si>
-  <si>
-    <t>Invalid option for the command or the action</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>snapshot -a rollback -i 100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Snapshot id=[100] is not existed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>snapshot -a unmount -i 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NAS Share id=[100] is not existed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>snapshot -a rollback -i 5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>snapshot -a rollback -i 1 -f</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -951,7 +944,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -959,7 +952,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
@@ -967,7 +960,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
@@ -975,7 +968,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
@@ -983,7 +976,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B6" t="s">
         <v>2</v>
@@ -991,7 +984,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B7" t="s">
         <v>2</v>
@@ -999,7 +992,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B8" t="s">
         <v>2</v>
@@ -1007,7 +1000,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B9" t="s">
         <v>2</v>
@@ -1015,7 +1008,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B10" t="s">
         <v>2</v>
@@ -1023,10 +1016,10 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -1059,7 +1052,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -1067,7 +1060,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -1075,7 +1068,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -1083,7 +1076,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -1091,7 +1084,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
@@ -1099,7 +1092,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
@@ -1107,7 +1100,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
@@ -1115,7 +1108,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>
@@ -1123,7 +1116,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B10" t="s">
         <v>3</v>
@@ -1131,7 +1124,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B11" t="s">
         <v>3</v>
@@ -1139,7 +1132,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B12" t="s">
         <v>3</v>
@@ -1147,7 +1140,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B13" t="s">
         <v>3</v>
@@ -1155,7 +1148,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B14" t="s">
         <v>3</v>
@@ -1163,7 +1156,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B15" t="s">
         <v>3</v>
@@ -1171,7 +1164,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B16" t="s">
         <v>3</v>
@@ -1614,7 +1607,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B3" t="s">
         <v>77</v>
@@ -1637,7 +1630,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1656,7 +1649,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B2" t="s">
         <v>79</v>
@@ -1664,7 +1657,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B3" t="s">
         <v>78</v>
@@ -1681,7 +1674,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -1712,7 +1705,7 @@
         <v>50</v>
       </c>
       <c r="B2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C2" t="s">
         <v>51</v>
@@ -1723,10 +1716,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C3" t="s">
         <v>51</v>
@@ -1737,10 +1730,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C4" t="s">
         <v>51</v>
@@ -1757,10 +1750,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1811,23 +1804,23 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B8" t="s">
         <v>37</v>
@@ -1835,7 +1828,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B9" t="s">
         <v>37</v>
@@ -1862,7 +1855,7 @@
         <v>86</v>
       </c>
       <c r="B12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
@@ -1899,7 +1892,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B17" t="s">
         <v>36</v>
@@ -1907,15 +1900,15 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>132</v>
+        <v>97</v>
       </c>
       <c r="B18" t="s">
-        <v>133</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="B19" t="s">
         <v>36</v>
@@ -1923,18 +1916,10 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>91</v>
+        <v>135</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A21" t="s">
-        <v>92</v>
-      </c>
-      <c r="B21" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>

--- a/data/snapshot.xlsx
+++ b/data/snapshot.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="884" firstSheet="3" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="884" firstSheet="4" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="add_snapshot" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="137">
   <si>
     <t>send command</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -467,6 +467,10 @@
   </si>
   <si>
     <t>snapshot -a del -i 100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>checkpoint</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -922,104 +926,138 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="61.5" customWidth="1"/>
     <col min="2" max="2" width="45.5" customWidth="1"/>
+    <col min="3" max="3" width="49.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C1" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>98</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>99</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>100</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>101</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>102</v>
       </c>
       <c r="B6" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>103</v>
       </c>
       <c r="B7" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>104</v>
       </c>
       <c r="B8" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>105</v>
       </c>
       <c r="B9" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>107</v>
       </c>
       <c r="B10" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>106</v>
       </c>
       <c r="B11" t="s">
         <v>130</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1030,143 +1068,192 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="40.25" customWidth="1"/>
     <col min="2" max="2" width="21.875" customWidth="1"/>
+    <col min="3" max="3" width="19.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C1" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>108</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>109</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>110</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>111</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>112</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>113</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>114</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>115</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>116</v>
       </c>
       <c r="B10" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>117</v>
       </c>
       <c r="B11" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>118</v>
       </c>
       <c r="B12" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>119</v>
       </c>
       <c r="B13" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>120</v>
       </c>
       <c r="B14" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>121</v>
       </c>
       <c r="B15" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>122</v>
       </c>
       <c r="B16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1750,175 +1837,235 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="78" customWidth="1"/>
-    <col min="2" max="2" width="55.875" customWidth="1"/>
+    <col min="2" max="3" width="55.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C1" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>80</v>
       </c>
       <c r="B2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>81</v>
       </c>
       <c r="B3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>82</v>
       </c>
       <c r="B4" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>83</v>
       </c>
       <c r="B5" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>92</v>
       </c>
       <c r="B6" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>93</v>
       </c>
       <c r="B7" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>94</v>
       </c>
       <c r="B8" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>95</v>
       </c>
       <c r="B9" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>84</v>
       </c>
       <c r="B10" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>85</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>86</v>
       </c>
       <c r="B12" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C12" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>87</v>
       </c>
       <c r="B13" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>88</v>
       </c>
       <c r="B14" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>89</v>
       </c>
       <c r="B15" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>90</v>
       </c>
       <c r="B16" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>96</v>
       </c>
       <c r="B17" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>97</v>
       </c>
       <c r="B18" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>91</v>
       </c>
       <c r="B19" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>135</v>
       </c>
       <c r="B20" t="s">
+        <v>128</v>
+      </c>
+      <c r="C20" t="s">
         <v>128</v>
       </c>
     </row>

--- a/data/snapshot.xlsx
+++ b/data/snapshot.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="884" firstSheet="4" activeTab="10"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="884" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="add_snapshot" sheetId="1" r:id="rId1"/>
@@ -458,19 +458,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>snapshot -a rollback -i 1 -f</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>snapshot -a rollback -i 5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>snapshot -a del -i 100</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>checkpoint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>snapshot -a rollback -i 3 -f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>snapshot -a rollback -i 2 -f</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -822,7 +822,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -947,7 +947,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
@@ -1070,7 +1070,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
@@ -1089,7 +1089,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
@@ -1716,8 +1716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1736,7 +1736,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B2" t="s">
         <v>79</v>
@@ -1744,7 +1744,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B3" t="s">
         <v>78</v>
@@ -1857,7 +1857,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
@@ -2060,7 +2060,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B20" t="s">
         <v>128</v>
